--- a/GanChart.xlsx
+++ b/GanChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Diplomarbeit\Diplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F9BF02-CD95-4EB9-81B5-317FEA9DD793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF86EEE-699F-4021-A881-723ACF9E5319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A60E1A9-9AFA-49B6-9E23-0F924E7089BE}"/>
   </bookViews>
@@ -36,9 +36,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Vorbereitung</t>
+  </si>
+  <si>
+    <t>Verbesserungszeit</t>
+  </si>
+  <si>
+    <t>Designen von Raumtypen und Rätseln</t>
+  </si>
+  <si>
+    <t>Erstellen von Gegenständen in den Räumen</t>
+  </si>
+  <si>
+    <t>Quizshow</t>
+  </si>
+  <si>
+    <t>Konzeptzeichnungen</t>
+  </si>
+  <si>
+    <t>Menüs Designen</t>
+  </si>
+  <si>
+    <t>Erstellen von Benötigten Grafiken</t>
+  </si>
+  <si>
+    <t>Erstellen von Animationen</t>
+  </si>
+  <si>
+    <t>Erstellen Prototyp</t>
+  </si>
+  <si>
+    <t>Spieler</t>
+  </si>
+  <si>
+    <t>Pathfinding</t>
+  </si>
+  <si>
+    <t>Spieler und Gegner Fähigkeiten</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>Begleiter</t>
+  </si>
+  <si>
+    <t>Dungeongenerator</t>
+  </si>
+  <si>
+    <t>Oberwelt</t>
+  </si>
+  <si>
+    <t>Musik &amp; Sounds</t>
+  </si>
+  <si>
+    <t>Bonusräume</t>
+  </si>
+  <si>
+    <t>Dialoge</t>
   </si>
 </sst>
 </file>
@@ -48,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm\ yy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,8 +116,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +133,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -83,16 +173,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00CC"/>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -401,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669F4C8C-7B22-40F5-B844-824C1CAB3D2A}">
-  <dimension ref="A1:BX2"/>
+  <dimension ref="A1:BX26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.35">
@@ -677,7 +791,7 @@
         <v>45306</v>
       </c>
       <c r="BP1" s="1">
-        <f t="shared" ref="BP1:BX1" si="1">BO1+7</f>
+        <f t="shared" ref="BP1:BU1" si="1">BO1+7</f>
         <v>45313</v>
       </c>
       <c r="BQ1" s="1">
@@ -705,12 +819,119 @@
       <c r="BX1" s="1"/>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+    </row>
+    <row r="5" spans="1:76" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:76" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
